--- a/data/입주율.xlsx
+++ b/data/입주율.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2025\0. 스터디\2025\streamlit_study\입주율\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E85EBE10-63EF-48F1-AEF9-C6E7B07A182E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDD815AC-0445-43EC-97FD-1B0EFAE0AD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ADD386A9-7051-43CE-8A96-C88BDECE1F0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{893F31B2-9D0E-4858-98A4-715B93C32284}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -355,7 +355,7 @@
     <t>빌리브라디체</t>
   </si>
   <si>
-    <t>해링턴플레이스감삼3차</t>
+    <t>해링턴플레이스 감삼3차</t>
   </si>
   <si>
     <t>구수산공원 화성파크드림</t>
@@ -1899,11 +1899,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F72E03-F3D7-4E87-B8AD-4688C72C5D10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883633BC-DEE8-4C54-8600-857B9B6413E5}">
   <dimension ref="A1:BB247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2466,10 +2466,10 @@
         <v>45176</v>
       </c>
       <c r="E9">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F9" s="2">
-        <v>0.98150000000000004</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2539,6 +2539,9 @@
       </c>
       <c r="AD9">
         <v>6</v>
+      </c>
+      <c r="AE9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.3">
@@ -3405,10 +3408,10 @@
         <v>45222</v>
       </c>
       <c r="E21">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="F21" s="2">
-        <v>0.99039999999999995</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="I21">
         <v>67</v>
@@ -3472,6 +3475,9 @@
       </c>
       <c r="AC21">
         <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.3">
@@ -3562,10 +3568,10 @@
         <v>45594</v>
       </c>
       <c r="E23">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F23" s="2">
-        <v>0.94740000000000002</v>
+        <v>0.95179999999999998</v>
       </c>
       <c r="I23">
         <v>45</v>
@@ -3593,6 +3599,9 @@
       </c>
       <c r="Q23">
         <v>2</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.3">
@@ -3609,16 +3618,19 @@
         <v>45841</v>
       </c>
       <c r="E24">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="F24" s="2">
-        <v>0.31769999999999998</v>
+        <v>0.45650000000000002</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24">
         <v>186</v>
+      </c>
+      <c r="I24">
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.3">
@@ -3635,10 +3647,10 @@
         <v>45443</v>
       </c>
       <c r="E25">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F25" s="2">
-        <v>0.88480000000000003</v>
+        <v>0.88670000000000004</v>
       </c>
       <c r="I25">
         <v>138</v>
@@ -3677,6 +3689,9 @@
         <v>3</v>
       </c>
       <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="W25">
         <v>1</v>
       </c>
     </row>
@@ -3945,10 +3960,10 @@
         <v>45014</v>
       </c>
       <c r="E30">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F30" s="2">
-        <v>0.94869999999999999</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="I30">
         <v>14</v>
@@ -3991,6 +4006,9 @@
       </c>
       <c r="AC30">
         <v>2</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.3">
@@ -4219,10 +4237,10 @@
         <v>45203</v>
       </c>
       <c r="E35">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F35" s="2">
-        <v>0.99450000000000005</v>
+        <v>0.99560000000000004</v>
       </c>
       <c r="G35">
         <v>20</v>
@@ -4274,6 +4292,9 @@
       </c>
       <c r="AC35">
         <v>2</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.3">
@@ -5451,16 +5472,19 @@
         <v>45694</v>
       </c>
       <c r="E54">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F54" s="2">
-        <v>0.12429999999999999</v>
+        <v>0.13619999999999999</v>
       </c>
       <c r="L54">
         <v>53</v>
       </c>
       <c r="M54">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="N54">
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.3">
@@ -5477,10 +5501,10 @@
         <v>45569</v>
       </c>
       <c r="E55">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F55" s="2">
-        <v>0.9718</v>
+        <v>0.97330000000000005</v>
       </c>
       <c r="G55">
         <v>8</v>
@@ -5514,6 +5538,9 @@
       </c>
       <c r="Q55">
         <v>2</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:50" x14ac:dyDescent="0.3">
@@ -5530,10 +5557,10 @@
         <v>45608</v>
       </c>
       <c r="E56">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F56" s="2">
-        <v>0.88160000000000005</v>
+        <v>0.88380000000000003</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5561,6 +5588,9 @@
       </c>
       <c r="P56">
         <v>12</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:50" x14ac:dyDescent="0.3">
@@ -5577,10 +5607,10 @@
         <v>45498</v>
       </c>
       <c r="E57">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="F57" s="2">
-        <v>0.76070000000000004</v>
+        <v>0.76949999999999996</v>
       </c>
       <c r="G57">
         <v>4</v>
@@ -5623,6 +5653,9 @@
       </c>
       <c r="T57">
         <v>10</v>
+      </c>
+      <c r="U57">
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.3">
@@ -5639,10 +5672,10 @@
         <v>45762</v>
       </c>
       <c r="E58">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="F58" s="2">
-        <v>0.23930000000000001</v>
+        <v>0.2984</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -5652,6 +5685,9 @@
       </c>
       <c r="K58">
         <v>84</v>
+      </c>
+      <c r="L58">
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.3">
@@ -5688,10 +5724,10 @@
         <v>45638</v>
       </c>
       <c r="E60">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F60" s="2">
-        <v>0.94230000000000003</v>
+        <v>0.94420000000000004</v>
       </c>
       <c r="I60">
         <v>40</v>
@@ -5713,6 +5749,9 @@
       </c>
       <c r="O60">
         <v>3</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:50" x14ac:dyDescent="0.3">
@@ -6057,10 +6096,10 @@
         <v>45218</v>
       </c>
       <c r="E66">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F66" s="2">
-        <v>0.98519999999999996</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="G66">
         <v>13</v>
@@ -6130,6 +6169,9 @@
       </c>
       <c r="AC66">
         <v>6</v>
+      </c>
+      <c r="AD66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:51" x14ac:dyDescent="0.3">
@@ -6305,10 +6347,10 @@
         <v>44830</v>
       </c>
       <c r="E70">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F70" s="2">
-        <v>0.96120000000000005</v>
+        <v>0.96509999999999996</v>
       </c>
       <c r="I70">
         <v>5</v>
@@ -6383,6 +6425,9 @@
         <v>2</v>
       </c>
       <c r="AP70">
+        <v>1</v>
+      </c>
+      <c r="AQ70">
         <v>1</v>
       </c>
     </row>
@@ -6400,10 +6445,10 @@
         <v>45322</v>
       </c>
       <c r="E71">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F71" s="2">
-        <v>0.99580000000000002</v>
+        <v>0.99719999999999998</v>
       </c>
       <c r="I71">
         <v>108</v>
@@ -6445,6 +6490,9 @@
         <v>2</v>
       </c>
       <c r="X71">
+        <v>1</v>
+      </c>
+      <c r="AA71">
         <v>1</v>
       </c>
     </row>
@@ -7402,10 +7450,10 @@
         <v>45127</v>
       </c>
       <c r="E86">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2">
-        <v>0.95830000000000004</v>
+        <v>0.9667</v>
       </c>
       <c r="J86">
         <v>29</v>
@@ -7451,6 +7499,9 @@
       </c>
       <c r="AB86">
         <v>3</v>
+      </c>
+      <c r="AG86">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.3">
@@ -7511,10 +7562,10 @@
         <v>45560</v>
       </c>
       <c r="E88">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="F88" s="2">
-        <v>0.97840000000000005</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="H88">
         <v>18</v>
@@ -7548,6 +7599,9 @@
       </c>
       <c r="R88">
         <v>2</v>
+      </c>
+      <c r="S88">
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.3">
@@ -7564,10 +7618,10 @@
         <v>45538</v>
       </c>
       <c r="E89">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="F89" s="2">
-        <v>0.88790000000000002</v>
+        <v>0.89539999999999997</v>
       </c>
       <c r="G89">
         <v>46</v>
@@ -7604,6 +7658,9 @@
       </c>
       <c r="R89">
         <v>15</v>
+      </c>
+      <c r="S89">
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:44" x14ac:dyDescent="0.3">
@@ -7620,10 +7677,10 @@
         <v>45614</v>
       </c>
       <c r="E90">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F90" s="2">
-        <v>0.40660000000000002</v>
+        <v>0.41320000000000001</v>
       </c>
       <c r="I90">
         <v>3</v>
@@ -7648,6 +7705,9 @@
       </c>
       <c r="P90">
         <v>12</v>
+      </c>
+      <c r="Q90">
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:44" x14ac:dyDescent="0.3">
@@ -7752,10 +7812,10 @@
         <v>45520</v>
       </c>
       <c r="E93">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F93" s="2">
-        <v>0.74050000000000005</v>
+        <v>0.7429</v>
       </c>
       <c r="G93">
         <v>8</v>
@@ -7795,6 +7855,9 @@
       </c>
       <c r="S93">
         <v>9</v>
+      </c>
+      <c r="T93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.3">
@@ -7811,10 +7874,10 @@
         <v>45602</v>
       </c>
       <c r="E94">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F94" s="2">
-        <v>0.21829999999999999</v>
+        <v>0.2576</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -7839,6 +7902,9 @@
       </c>
       <c r="P94">
         <v>10</v>
+      </c>
+      <c r="Q94">
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.3">
@@ -7855,10 +7921,10 @@
         <v>45623</v>
       </c>
       <c r="E95">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F95" s="2">
-        <v>0.875</v>
+        <v>0.87849999999999995</v>
       </c>
       <c r="I95">
         <v>7</v>
@@ -7883,6 +7949,9 @@
       </c>
       <c r="P95">
         <v>7</v>
+      </c>
+      <c r="Q95">
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:44" x14ac:dyDescent="0.3">
@@ -8287,10 +8356,10 @@
         <v>45142</v>
       </c>
       <c r="E101">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F101" s="2">
-        <v>0.9506</v>
+        <v>0.95440000000000003</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -8335,6 +8404,9 @@
         <v>1</v>
       </c>
       <c r="AA101">
+        <v>1</v>
+      </c>
+      <c r="AF101">
         <v>1</v>
       </c>
     </row>
@@ -8509,10 +8581,10 @@
         <v>44665</v>
       </c>
       <c r="E104">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F104" s="2">
-        <v>0.87880000000000003</v>
+        <v>0.89390000000000003</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -8578,6 +8650,9 @@
         <v>1</v>
       </c>
       <c r="AS104">
+        <v>1</v>
+      </c>
+      <c r="AV104">
         <v>1</v>
       </c>
     </row>
@@ -8858,10 +8933,10 @@
         <v>45415</v>
       </c>
       <c r="E109">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F109" s="2">
-        <v>0.86140000000000005</v>
+        <v>0.86570000000000003</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -8906,6 +8981,9 @@
         <v>3</v>
       </c>
       <c r="V109">
+        <v>2</v>
+      </c>
+      <c r="W109">
         <v>2</v>
       </c>
     </row>
@@ -8976,10 +9054,10 @@
         <v>45614</v>
       </c>
       <c r="E111">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="F111" s="2">
-        <v>0.91279999999999994</v>
+        <v>0.91739999999999999</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -9010,6 +9088,9 @@
       </c>
       <c r="P111">
         <v>13</v>
+      </c>
+      <c r="Q111">
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:54" x14ac:dyDescent="0.3">
@@ -9026,10 +9107,10 @@
         <v>45779</v>
       </c>
       <c r="E112">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="F112" s="2">
-        <v>0.42020000000000002</v>
+        <v>0.45190000000000002</v>
       </c>
       <c r="H112">
         <v>178</v>
@@ -9039,6 +9120,9 @@
       </c>
       <c r="J112">
         <v>83</v>
+      </c>
+      <c r="K112">
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:43" x14ac:dyDescent="0.3">
@@ -9055,10 +9139,13 @@
         <v>45709</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F113" s="2">
-        <v>0</v>
+        <v>0.42</v>
+      </c>
+      <c r="N113">
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:43" x14ac:dyDescent="0.3">
@@ -9075,10 +9162,10 @@
         <v>45636</v>
       </c>
       <c r="E114">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F114" s="2">
-        <v>0.81640000000000001</v>
+        <v>0.83009999999999995</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -9103,6 +9190,9 @@
       </c>
       <c r="O114">
         <v>17</v>
+      </c>
+      <c r="P114">
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:43" x14ac:dyDescent="0.3">
@@ -10262,10 +10352,10 @@
         <v>45260</v>
       </c>
       <c r="E133">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F133" s="2">
-        <v>5.4199999999999998E-2</v>
+        <v>5.8299999999999998E-2</v>
       </c>
       <c r="V133">
         <v>4</v>
@@ -10283,6 +10373,9 @@
         <v>2</v>
       </c>
       <c r="AB133">
+        <v>1</v>
+      </c>
+      <c r="AC133">
         <v>1</v>
       </c>
     </row>
@@ -10706,10 +10799,10 @@
         <v>45356</v>
       </c>
       <c r="E139">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F139" s="2">
-        <v>0.99229999999999996</v>
+        <v>0.99490000000000001</v>
       </c>
       <c r="H139">
         <v>28</v>
@@ -10745,6 +10838,9 @@
         <v>4</v>
       </c>
       <c r="U139">
+        <v>1</v>
+      </c>
+      <c r="Y139">
         <v>1</v>
       </c>
     </row>
@@ -10762,10 +10858,10 @@
         <v>45351</v>
       </c>
       <c r="E140">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="F140" s="2">
-        <v>0.9859</v>
+        <v>0.98839999999999995</v>
       </c>
       <c r="I140">
         <v>466</v>
@@ -10817,6 +10913,9 @@
       </c>
       <c r="Y140">
         <v>5</v>
+      </c>
+      <c r="Z140">
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:51" x14ac:dyDescent="0.3">
@@ -10833,10 +10932,10 @@
         <v>44860</v>
       </c>
       <c r="E141">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F141" s="2">
-        <v>0.90100000000000002</v>
+        <v>0.90629999999999999</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -10918,6 +11017,9 @@
       </c>
       <c r="AO141">
         <v>2</v>
+      </c>
+      <c r="AP141">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:51" x14ac:dyDescent="0.3">
@@ -11054,10 +11156,10 @@
         <v>45630</v>
       </c>
       <c r="E145">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F145" s="2">
-        <v>0.79459999999999997</v>
+        <v>0.80620000000000003</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -11079,6 +11181,9 @@
       </c>
       <c r="O145">
         <v>7</v>
+      </c>
+      <c r="P145">
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:32" x14ac:dyDescent="0.3">
@@ -11133,10 +11238,10 @@
         <v>45680</v>
       </c>
       <c r="E147">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="F147" s="2">
-        <v>0.80589999999999995</v>
+        <v>0.82379999999999998</v>
       </c>
       <c r="J147">
         <v>101</v>
@@ -11154,7 +11259,7 @@
         <v>27</v>
       </c>
       <c r="O147">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:32" x14ac:dyDescent="0.3">
@@ -11256,10 +11361,10 @@
         <v>45478</v>
       </c>
       <c r="E150">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F150" s="2">
-        <v>0.66669999999999996</v>
+        <v>0.71789999999999998</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -11289,6 +11394,9 @@
         <v>5</v>
       </c>
       <c r="T150">
+        <v>2</v>
+      </c>
+      <c r="U150">
         <v>2</v>
       </c>
     </row>
@@ -11365,10 +11473,10 @@
         <v>45597</v>
       </c>
       <c r="E152">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="F152" s="2">
-        <v>0.88859999999999995</v>
+        <v>0.89970000000000006</v>
       </c>
       <c r="H152">
         <v>51</v>
@@ -11396,6 +11504,9 @@
       </c>
       <c r="P152">
         <v>15</v>
+      </c>
+      <c r="Q152">
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:32" x14ac:dyDescent="0.3">
@@ -11412,13 +11523,16 @@
         <v>45569</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F153" s="2">
-        <v>8.0999999999999996E-3</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="Q153">
         <v>1</v>
+      </c>
+      <c r="R153">
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:32" x14ac:dyDescent="0.3">
@@ -11544,10 +11658,10 @@
         <v>45273</v>
       </c>
       <c r="E156">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F156" s="2">
-        <v>0.98960000000000004</v>
+        <v>0.99060000000000004</v>
       </c>
       <c r="I156">
         <v>36</v>
@@ -11598,6 +11712,9 @@
         <v>4</v>
       </c>
       <c r="Z156">
+        <v>1</v>
+      </c>
+      <c r="AB156">
         <v>1</v>
       </c>
     </row>
@@ -12934,10 +13051,10 @@
         <v>44729</v>
       </c>
       <c r="E179">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F179" s="2">
-        <v>0.96560000000000001</v>
+        <v>0.96750000000000003</v>
       </c>
       <c r="I179">
         <v>85</v>
@@ -13007,6 +13124,9 @@
       </c>
       <c r="AS179">
         <v>2</v>
+      </c>
+      <c r="AT179">
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:49" x14ac:dyDescent="0.3">
@@ -13147,10 +13267,10 @@
         <v>45397</v>
       </c>
       <c r="E182">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="F182" s="2">
-        <v>0.94169999999999998</v>
+        <v>0.94259999999999999</v>
       </c>
       <c r="G182">
         <v>22</v>
@@ -13195,6 +13315,9 @@
         <v>2</v>
       </c>
       <c r="W182">
+        <v>1</v>
+      </c>
+      <c r="X182">
         <v>1</v>
       </c>
     </row>
@@ -13268,10 +13391,10 @@
         <v>45518</v>
       </c>
       <c r="E184">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F184" s="2">
-        <v>0.90569999999999995</v>
+        <v>0.91310000000000002</v>
       </c>
       <c r="I184">
         <v>49</v>
@@ -13305,6 +13428,9 @@
       </c>
       <c r="S184">
         <v>6</v>
+      </c>
+      <c r="T184">
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:49" x14ac:dyDescent="0.3">
@@ -13321,15 +13447,18 @@
         <v>45736</v>
       </c>
       <c r="E185">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F185" s="2">
-        <v>2.5600000000000001E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="K185">
         <v>6</v>
       </c>
       <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
         <v>3</v>
       </c>
     </row>
@@ -13510,10 +13639,10 @@
         <v>45224</v>
       </c>
       <c r="E188">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F188" s="2">
-        <v>0.89100000000000001</v>
+        <v>0.89359999999999995</v>
       </c>
       <c r="H188">
         <v>6</v>
@@ -13562,6 +13691,9 @@
       </c>
       <c r="AB188">
         <v>2</v>
+      </c>
+      <c r="AD188">
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:49" x14ac:dyDescent="0.3">
@@ -14074,10 +14206,10 @@
         <v>45226</v>
       </c>
       <c r="E197">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F197" s="2">
-        <v>0.3412</v>
+        <v>0.35289999999999999</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -14144,6 +14276,9 @@
       </c>
       <c r="AC197">
         <v>3</v>
+      </c>
+      <c r="AD197">
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:52" x14ac:dyDescent="0.3">
@@ -14600,10 +14735,10 @@
         <v>45359</v>
       </c>
       <c r="E205">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F205" s="2">
-        <v>0.76419999999999999</v>
+        <v>0.77639999999999998</v>
       </c>
       <c r="I205">
         <v>31</v>
@@ -14652,6 +14787,9 @@
       </c>
       <c r="X205">
         <v>2</v>
+      </c>
+      <c r="Y205">
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:52" x14ac:dyDescent="0.3">
@@ -15093,10 +15231,10 @@
         <v>45762</v>
       </c>
       <c r="E213">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F213" s="2">
-        <v>0.67520000000000002</v>
+        <v>0.71789999999999998</v>
       </c>
       <c r="H213">
         <v>10</v>
@@ -15109,6 +15247,9 @@
       </c>
       <c r="K213">
         <v>14</v>
+      </c>
+      <c r="L213">
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:53" x14ac:dyDescent="0.3">
@@ -15264,10 +15405,10 @@
         <v>45349</v>
       </c>
       <c r="E216">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F216" s="2">
-        <v>0.26900000000000002</v>
+        <v>0.2944</v>
       </c>
       <c r="I216">
         <v>46</v>
@@ -15301,6 +15442,9 @@
       </c>
       <c r="Y216">
         <v>8</v>
+      </c>
+      <c r="Z216">
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:53" x14ac:dyDescent="0.3">
@@ -15622,10 +15766,10 @@
         <v>44910</v>
       </c>
       <c r="E221">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="F221" s="2">
-        <v>0.97760000000000002</v>
+        <v>0.98080000000000001</v>
       </c>
       <c r="H221">
         <v>9</v>
@@ -15710,6 +15854,9 @@
       </c>
       <c r="AM221">
         <v>1</v>
+      </c>
+      <c r="AN221">
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:53" x14ac:dyDescent="0.3">
@@ -15726,10 +15873,10 @@
         <v>45218</v>
       </c>
       <c r="E222">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F222" s="2">
-        <v>0.94540000000000002</v>
+        <v>0.94720000000000004</v>
       </c>
       <c r="G222">
         <v>11</v>
@@ -15799,6 +15946,9 @@
       </c>
       <c r="AC222">
         <v>5</v>
+      </c>
+      <c r="AD222">
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:53" x14ac:dyDescent="0.3">
@@ -15990,10 +16140,10 @@
         <v>44978</v>
       </c>
       <c r="E225">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F225" s="2">
-        <v>0.91559999999999997</v>
+        <v>0.91879999999999995</v>
       </c>
       <c r="J225">
         <v>36</v>
@@ -16039,6 +16189,9 @@
       </c>
       <c r="AK225">
         <v>4</v>
+      </c>
+      <c r="AL225">
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:41" x14ac:dyDescent="0.3">
@@ -16542,10 +16695,10 @@
         <v>44896</v>
       </c>
       <c r="E234">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F234" s="2">
-        <v>0.87780000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="H234">
         <v>4</v>
@@ -16630,6 +16783,9 @@
       </c>
       <c r="AM234">
         <v>4</v>
+      </c>
+      <c r="AN234">
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:41" x14ac:dyDescent="0.3">
@@ -16646,10 +16802,10 @@
         <v>45343</v>
       </c>
       <c r="E235">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="F235" s="2">
-        <v>0.92079999999999995</v>
+        <v>0.93310000000000004</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -16704,6 +16860,9 @@
       </c>
       <c r="Y235">
         <v>5</v>
+      </c>
+      <c r="Z235">
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:41" x14ac:dyDescent="0.3">
@@ -16766,13 +16925,16 @@
         <v>45860</v>
       </c>
       <c r="E238">
-        <v>28</v>
+        <v>298</v>
       </c>
       <c r="F238" s="2">
-        <v>2.0199999999999999E-2</v>
+        <v>0.215</v>
       </c>
       <c r="H238">
         <v>28</v>
+      </c>
+      <c r="I238">
+        <v>270</v>
       </c>
     </row>
     <row r="239" spans="1:41" x14ac:dyDescent="0.3">
@@ -16789,10 +16951,10 @@
         <v>45446</v>
       </c>
       <c r="E239">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F239" s="2">
-        <v>0.88109999999999999</v>
+        <v>0.88329999999999997</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -16831,6 +16993,9 @@
         <v>1</v>
       </c>
       <c r="T239">
+        <v>1</v>
+      </c>
+      <c r="V239">
         <v>1</v>
       </c>
     </row>
@@ -16945,10 +17110,10 @@
         <v>45539</v>
       </c>
       <c r="E242">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F242" s="2">
-        <v>0.89149999999999996</v>
+        <v>0.89380000000000004</v>
       </c>
       <c r="J242">
         <v>141</v>
@@ -16976,6 +17141,9 @@
       </c>
       <c r="R242">
         <v>11</v>
+      </c>
+      <c r="S242">
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:54" x14ac:dyDescent="0.3">
@@ -16992,10 +17160,10 @@
         <v>45602</v>
       </c>
       <c r="E243">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F243" s="2">
-        <v>0.43959999999999999</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="I243">
         <v>2</v>
@@ -17020,6 +17188,9 @@
       </c>
       <c r="P243">
         <v>9</v>
+      </c>
+      <c r="Q243">
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:54" x14ac:dyDescent="0.3">
@@ -17074,16 +17245,19 @@
         <v>45842</v>
       </c>
       <c r="E245">
-        <v>265</v>
+        <v>381</v>
       </c>
       <c r="F245" s="2">
-        <v>0.26369999999999999</v>
+        <v>0.37909999999999999</v>
       </c>
       <c r="G245">
         <v>1</v>
       </c>
       <c r="H245">
         <v>264</v>
+      </c>
+      <c r="I245">
+        <v>116</v>
       </c>
     </row>
     <row r="246" spans="1:54" x14ac:dyDescent="0.3">
@@ -17100,10 +17274,10 @@
         <v>45652</v>
       </c>
       <c r="E246">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F246" s="2">
-        <v>0.46300000000000002</v>
+        <v>0.47220000000000001</v>
       </c>
       <c r="J246">
         <v>1</v>
@@ -17122,6 +17296,9 @@
       </c>
       <c r="O246">
         <v>3</v>
+      </c>
+      <c r="P246">
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:54" x14ac:dyDescent="0.3">
@@ -17132,10 +17309,10 @@
         <v>128221</v>
       </c>
       <c r="E247" s="3">
-        <v>115376</v>
+        <v>116089</v>
       </c>
       <c r="F247" s="2">
-        <v>0.89980000000000004</v>
+        <v>0.90539999999999998</v>
       </c>
       <c r="G247" s="3">
         <v>1040</v>
@@ -17144,79 +17321,79 @@
         <v>11954</v>
       </c>
       <c r="I247" s="3">
-        <v>24117</v>
+        <v>24586</v>
       </c>
       <c r="J247" s="3">
         <v>29077</v>
       </c>
       <c r="K247" s="3">
-        <v>17211</v>
+        <v>17243</v>
       </c>
       <c r="L247" s="3">
-        <v>9399</v>
+        <v>9440</v>
       </c>
       <c r="M247" s="3">
-        <v>5471</v>
+        <v>5475</v>
       </c>
       <c r="N247" s="3">
-        <v>3517</v>
+        <v>3547</v>
       </c>
       <c r="O247" s="3">
-        <v>3133</v>
+        <v>3142</v>
       </c>
       <c r="P247" s="3">
-        <v>2600</v>
+        <v>2611</v>
       </c>
       <c r="Q247" s="3">
-        <v>1116</v>
+        <v>1151</v>
       </c>
       <c r="R247" s="3">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="S247">
-        <v>901</v>
-      </c>
-      <c r="T247">
-        <v>999</v>
+        <v>910</v>
+      </c>
+      <c r="T247" s="3">
+        <v>1004</v>
       </c>
       <c r="U247">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="V247">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W247">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="X247">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y247">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Z247">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="AA247">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AB247">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AC247">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AD247">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AE247">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AF247">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG247">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH247">
         <v>48</v>
@@ -17228,25 +17405,25 @@
         <v>26</v>
       </c>
       <c r="AK247">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL247">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM247">
         <v>34</v>
       </c>
       <c r="AN247">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AO247">
         <v>13</v>
       </c>
       <c r="AP247">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ247">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR247">
         <v>6</v>
@@ -17255,13 +17432,13 @@
         <v>8</v>
       </c>
       <c r="AT247">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU247">
         <v>5</v>
       </c>
       <c r="AV247">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW247">
         <v>7</v>
